--- a/T_RFSoC_comm_commands_rev1_27-02-2023.xlsx
+++ b/T_RFSoC_comm_commands_rev1_27-02-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\3041-00\Development\System\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="OPTR commands" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,16 +488,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -517,20 +533,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,8 +573,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="F29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +898,12 @@
     <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,1268 +927,1263 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7" t="s">
+      <c r="E45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="7" t="s">
+      <c r="E47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="7" t="s">
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="7" t="s">
+      <c r="E55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="7" t="s">
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" s="7" t="s">
+      <c r="E59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="E61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H64" s="7" t="s">
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="E65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="4" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="7" t="s">
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="E67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="5"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="E69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="E70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="E71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="E72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="E74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B64:B67"/>
     <mergeCell ref="B69:B74"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B12:B27"/>
@@ -2136,6 +2191,11 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
